--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>(affective attitude OR evaluative belief)</t>
+          <t>('affective attitude' OR 'evaluative belief')</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
@@ -2207,7 +2207,11 @@
       <c r="S30" s="2" t="inlineStr"/>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2238,7 +2242,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>(affective attitude OR evaluative belief)</t>
+          <t>('affective attitude' OR 'evaluative belief')</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
@@ -2269,7 +2273,11 @@
       <c r="S31" s="2" t="inlineStr"/>
       <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30562,7 +30562,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>An &lt;identity&gt; that a person has about themselves.</t>
+          <t>An &lt;identity&gt; a person has about themselves.</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -30592,7 +30592,7 @@
       <c r="U502" t="inlineStr"/>
       <c r="V502" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W502" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal process</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W3" s="2" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1938,7 +1938,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1996,7 +1996,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       <c r="U27" s="2" t="inlineStr"/>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2232,7 +2232,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2290,7 +2290,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -2348,7 +2348,7 @@
       <c r="U31" s="2" t="inlineStr"/>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2406,7 +2406,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -3921,7 +3921,7 @@
       <c r="U57" s="2" t="inlineStr"/>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W57" s="2" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="U164" s="2" t="inlineStr"/>
       <c r="V164" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W164" s="2" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
@@ -13181,7 +13181,7 @@
       <c r="U212" s="2" t="inlineStr"/>
       <c r="V212" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W212" s="2" t="inlineStr">
@@ -30717,7 +30717,7 @@
       </c>
       <c r="C504" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D504" s="2" t="inlineStr">
@@ -30752,7 +30752,7 @@
       <c r="U504" s="2" t="inlineStr"/>
       <c r="V504" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W504" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -27267,7 +27267,7 @@
       </c>
       <c r="C446" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>pleasure (emotion)</t>
         </is>
       </c>
       <c r="D446" s="2" t="inlineStr">
@@ -27306,7 +27306,7 @@
       <c r="U446" s="2" t="inlineStr"/>
       <c r="V446" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W446" s="2" t="inlineStr">
@@ -31423,7 +31423,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>pleasure (emotion)</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -31458,7 +31458,7 @@
       <c r="U516" t="inlineStr"/>
       <c r="V516" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W516" t="inlineStr">
@@ -31713,7 +31713,7 @@
       </c>
       <c r="C521" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>pleasure (emotion)</t>
         </is>
       </c>
       <c r="D521" s="2" t="inlineStr">
@@ -31748,7 +31748,7 @@
       <c r="U521" s="2" t="inlineStr"/>
       <c r="V521" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W521" s="2" t="inlineStr">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>pleasure (emotion)</t>
         </is>
       </c>
       <c r="D527" s="2" t="inlineStr">
@@ -32100,7 +32100,7 @@
       <c r="U527" s="2" t="inlineStr"/>
       <c r="V527" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W527" s="2" t="inlineStr">
@@ -32897,7 +32897,7 @@
       </c>
       <c r="C541" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>pleasure (emotion)</t>
         </is>
       </c>
       <c r="D541" s="2" t="inlineStr">
@@ -32932,7 +32932,7 @@
       <c r="U541" s="2" t="inlineStr"/>
       <c r="V541" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W541" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -17687,7 +17687,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>nonassociative learning</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -17720,7 +17720,11 @@
       <c r="S288" t="inlineStr"/>
       <c r="T288" t="inlineStr"/>
       <c r="U288" t="inlineStr"/>
-      <c r="V288" t="inlineStr"/>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W288" t="inlineStr">
         <is>
           <t>0</t>
@@ -31369,7 +31373,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>nonassociative learning</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -31402,7 +31406,11 @@
       <c r="S515" t="inlineStr"/>
       <c r="T515" t="inlineStr"/>
       <c r="U515" t="inlineStr"/>
-      <c r="V515" t="inlineStr"/>
+      <c r="V515" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W515" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="E31" s="2" t="n"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="E34" s="2" t="n"/>
@@ -21684,7 +21684,7 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="Q356" s="2" t="inlineStr"/>
+      <c r="Q356" s="2" t="n"/>
       <c r="R356" s="2" t="n"/>
       <c r="S356" s="2" t="n"/>
       <c r="T356" s="2" t="n"/>
